--- a/WISOL.UI/Worksheet_PR.xlsx
+++ b/WISOL.UI/Worksheet_PR.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'3rd'!$A$1:$U$76</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Char!$A$1:$S$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Char!$A$1:$S$77</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'3rd'!$10:$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -809,6 +809,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,15 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1204,76 +1204,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="43.9" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="43.9" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
     </row>
     <row r="4" spans="1:21" ht="28.9" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
     </row>
     <row r="5" spans="1:21" ht="42" customHeight="1"/>
     <row r="6" spans="1:21" s="6" customFormat="1" ht="42" customHeight="1">
@@ -1320,41 +1320,41 @@
       <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:21" s="13" customFormat="1" ht="40.9" customHeight="1">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="54"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="57"/>
     </row>
     <row r="11" spans="1:21" s="13" customFormat="1" ht="94.9" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -1410,10 +1410,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="13" customFormat="1" ht="71.45" customHeight="1">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="14" t="s">
         <v>25</v>
       </c>
@@ -1756,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2281,97 +2281,97 @@
       <c r="R28" s="48"/>
     </row>
     <row r="29" spans="2:18" ht="19.5" customHeight="1">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WISOL.UI/Worksheet_PR.xlsx
+++ b/WISOL.UI/Worksheet_PR.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>QUẢN LÝ ĐỀ NGHỊ MUA HÀNG</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>비고</t>
+  </si>
+  <si>
+    <t>4.구매 요청(PR.NO):</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1185,7 @@
   <dimension ref="A2:U59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" zoomScalePageLayoutView="69" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="A3" sqref="A3:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1298,7 +1301,9 @@
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:21" s="12" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A9" s="7"/>
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>

--- a/WISOL.UI/Worksheet_PR.xlsx
+++ b/WISOL.UI/Worksheet_PR.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="3rd" sheetId="2" r:id="rId1"/>
+    <sheet name="Order" sheetId="2" r:id="rId1"/>
     <sheet name="Char" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3rd'!$A$1:$U$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Char!$A$1:$S$77</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'3rd'!$10:$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Order!$A$1:$U$76</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Order!$10:$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,9 +38,6 @@
     <t>BỘ PHẬN: SMT</t>
   </si>
   <si>
-    <t>1. 구입 목적 (Mục đích mua) : 20년 9 월 생산계획에 따른 Consumable part 구입 품의 (Đề nghị mua vật tư tiêu hao dựa trên kế hoạch sản xuất tháng 9 năm 2020)</t>
-  </si>
-  <si>
     <t>2.Lead Time : P/O Open 후 30 day (30 ngày sau ngày P/O)</t>
   </si>
   <si>
@@ -57,30 +54,6 @@
   </si>
   <si>
     <t>Tên vật tư tiếng Việt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color theme="1"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-Tên t</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>iếng anh/ tiếng hàn</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Quy cách /
@@ -292,6 +265,54 @@
   </si>
   <si>
     <t>4.구매 요청(PR.NO):</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tên</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tiếng anh/ tiếng hàn</t>
+    </r>
+  </si>
+  <si>
+    <t>1. 구입 목적 (Mục đích mua) : ….년 ... 월 생산계획에 따른 Consumable part 구입 품의 (Đề nghị mua vật tư tiêu hao dựa trên kế hoạch sản xuất tháng …. năm ….)</t>
   </si>
 </sst>
 </file>
@@ -673,7 +694,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -820,6 +841,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1185,7 +1209,7 @@
   <dimension ref="A2:U59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" zoomScalePageLayoutView="69" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:T3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1207,102 +1231,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="43.9" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="43.9" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
     </row>
     <row r="4" spans="1:21" ht="28.9" customHeight="1">
-      <c r="A4" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="A4" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
     </row>
     <row r="5" spans="1:21" ht="42" customHeight="1"/>
     <row r="6" spans="1:21" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:21" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:21" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:21" s="12" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1325,155 +1349,155 @@
       <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:21" s="13" customFormat="1" ht="40.9" customHeight="1">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+    </row>
+    <row r="11" spans="1:21" s="13" customFormat="1" ht="94.9" customHeight="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="57"/>
-    </row>
-    <row r="11" spans="1:21" s="13" customFormat="1" ht="94.9" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60" t="s">
+      <c r="C11" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="D11" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="E11" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="H11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="I11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="K11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="M11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="N11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="O11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="P11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="Q11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="R11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="S11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="T11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="U11" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="13" customFormat="1" ht="71.45" customHeight="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="13" customFormat="1" ht="71.45" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="H12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="I12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="J12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="K12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="L12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="N12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="O12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="P12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="Q12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="R12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="S12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="T12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="S12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="U12" s="51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="30" customFormat="1" ht="187.5" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
@@ -1786,7 +1810,7 @@
   <sheetData>
     <row r="1" spans="2:18">
       <c r="B1" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" s="40"/>
     </row>

--- a/WISOL.UI/Worksheet_PR.xlsx
+++ b/WISOL.UI/Worksheet_PR.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Char!$A$1:$S$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Order!$A$1:$U$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Order!$A$1:$V$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Order!$10:$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>QUẢN LÝ ĐỀ NGHỊ MUA HÀNG</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>1. 구입 목적 (Mục đích mua) : ….년 ... 월 생산계획에 따른 Consumable part 구입 품의 (Đề nghị mua vật tư tiêu hao dựa trên kế hoạch sản xuất tháng …. năm ….)</t>
+  </si>
+  <si>
+    <t>Lead Time (Week)</t>
   </si>
 </sst>
 </file>
@@ -694,7 +697,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -843,6 +846,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,7 +902,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>69273</xdr:colOff>
@@ -1206,10 +1215,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:U59"/>
+  <dimension ref="A2:V59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" zoomScalePageLayoutView="69" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1227,104 +1236,105 @@
     <col min="19" max="19" width="30.42578125" style="2" customWidth="1"/>
     <col min="20" max="20" width="37.42578125" style="2" customWidth="1"/>
     <col min="21" max="21" width="23.42578125" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="22" max="22" width="18.42578125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="43.9" customHeight="1">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="43.9" customHeight="1">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="43.9" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="43.9" customHeight="1">
+      <c r="A3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-    </row>
-    <row r="4" spans="1:21" ht="28.9" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+    </row>
+    <row r="4" spans="1:22" ht="28.9" customHeight="1">
+      <c r="A4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-    </row>
-    <row r="5" spans="1:21" ht="42" customHeight="1"/>
-    <row r="6" spans="1:21" s="6" customFormat="1" ht="42" customHeight="1">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+    </row>
+    <row r="5" spans="1:22" ht="42" customHeight="1"/>
+    <row r="6" spans="1:22" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" ht="42" customHeight="1">
+    <row r="7" spans="1:22" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" ht="42" customHeight="1">
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:21" s="12" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:22" s="12" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1348,42 +1358,43 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:21" s="13" customFormat="1" ht="40.9" customHeight="1">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:22" s="13" customFormat="1" ht="40.9" customHeight="1">
+      <c r="A10" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
-    </row>
-    <row r="11" spans="1:21" s="13" customFormat="1" ht="94.9" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="60"/>
+    </row>
+    <row r="11" spans="1:22" s="13" customFormat="1" ht="94.9" customHeight="1">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="55" t="s">
@@ -1437,12 +1448,15 @@
       <c r="U11" s="51" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" s="13" customFormat="1" ht="71.45" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="V11" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="13" customFormat="1" ht="71.45" customHeight="1">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="14" t="s">
         <v>23</v>
       </c>
@@ -1494,8 +1508,9 @@
       <c r="U12" s="51" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" s="30" customFormat="1" ht="187.5" customHeight="1">
+      <c r="V12" s="56"/>
+    </row>
+    <row r="13" spans="1:22" s="30" customFormat="1" ht="112.5" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>42</v>
       </c>
@@ -1519,8 +1534,9 @@
       <c r="S13" s="27"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
-    </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" ht="30.75">
+      <c r="V13" s="57"/>
+    </row>
+    <row r="14" spans="1:22" s="29" customFormat="1" ht="30.75">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -1542,7 +1558,7 @@
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:21" s="31" customFormat="1" ht="31.5">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="31.5">
       <c r="A15" s="49"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1564,7 +1580,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:21" s="31" customFormat="1" ht="7.5" customHeight="1">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="7.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1765,7 +1781,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B10:U10"/>
+    <mergeCell ref="B10:V10"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:T4"/>
@@ -1776,7 +1792,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.31496062992126" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="24" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="10" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/WISOL.UI/Worksheet_PR.xlsx
+++ b/WISOL.UI/Worksheet_PR.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Char!$A$1:$S$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Order!$A$1:$V$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Order!$A$1:$X$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Order!$10:$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>QUẢN LÝ ĐỀ NGHỊ MUA HÀNG</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Cost Ctr</t>
-  </si>
-  <si>
-    <t>Tên vật tư tiếng Việt</t>
   </si>
   <si>
     <t xml:space="preserve">Quy cách /
@@ -71,10 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-SL dùng tháng 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 SL dùng tháng 10</t>
   </si>
   <si>
@@ -106,9 +99,6 @@
   </si>
   <si>
     <t>Ngày cần hàng</t>
-  </si>
-  <si>
-    <t>(한글 혹은 영문명 기입)</t>
   </si>
   <si>
     <t>사양 / 사진</t>
@@ -267,6 +257,22 @@
     <t>4.구매 요청(PR.NO):</t>
   </si>
   <si>
+    <t>1. 구입 목적 (Mục đích mua) : ….년 ... 월 생산계획에 따른 Consumable part 구입 품의 (Đề nghị mua vật tư tiêu hao dựa trên kế hoạch sản xuất tháng …. năm ….)</t>
+  </si>
+  <si>
+    <t>Lead Time (Week)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SL đã dùng tháng 9</t>
+  </si>
+  <si>
+    <t>SL cần dùng tháng 9</t>
+  </si>
+  <si>
+    <t>SL cần đặt tháng 9</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -287,35 +293,13 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Tên</t>
+      <t>Tên vật tư tiếng Việt</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color theme="1"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tiếng anh/ tiếng hàn</t>
-    </r>
-  </si>
-  <si>
-    <t>1. 구입 목적 (Mục đích mua) : ….년 ... 월 생산계획에 따른 Consumable part 구입 품의 (Đề nghị mua vật tư tiêu hao dựa trên kế hoạch sản xuất tháng …. năm ….)</t>
-  </si>
-  <si>
-    <t>Lead Time (Week)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tên tiếng anh/ tiếng hàn
+(한글 혹은 영문명 기입)</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1199,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V59"/>
+  <dimension ref="A2:X59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" zoomScalePageLayoutView="69" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1228,19 +1212,19 @@
     <col min="4" max="5" width="64.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="2" customWidth="1"/>
-    <col min="8" max="13" width="19.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="26" style="2" customWidth="1"/>
-    <col min="17" max="18" width="28.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="30.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="37.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="15" width="19.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="26" style="2" customWidth="1"/>
+    <col min="19" max="20" width="28.42578125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="30.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="37.42578125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="43.9" customHeight="1">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="43.9" customHeight="1">
       <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
@@ -1263,8 +1247,10 @@
       <c r="R2" s="61"/>
       <c r="S2" s="61"/>
       <c r="T2" s="61"/>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="43.9" customHeight="1">
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="43.9" customHeight="1">
       <c r="A3" s="61" t="s">
         <v>1</v>
       </c>
@@ -1287,10 +1273,12 @@
       <c r="R3" s="61"/>
       <c r="S3" s="61"/>
       <c r="T3" s="61"/>
-    </row>
-    <row r="4" spans="1:22" ht="28.9" customHeight="1">
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+    </row>
+    <row r="4" spans="1:24" ht="28.9" customHeight="1">
       <c r="A4" s="62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -1311,32 +1299,34 @@
       <c r="R4" s="62"/>
       <c r="S4" s="62"/>
       <c r="T4" s="62"/>
-    </row>
-    <row r="5" spans="1:22" ht="42" customHeight="1"/>
-    <row r="6" spans="1:22" s="6" customFormat="1" ht="42" customHeight="1">
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+    </row>
+    <row r="5" spans="1:24" ht="42" customHeight="1"/>
+    <row r="6" spans="1:24" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:22" s="6" customFormat="1" ht="42" customHeight="1">
+    <row r="7" spans="1:24" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" ht="42" customHeight="1">
+    <row r="8" spans="1:24" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:22" s="12" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:24" s="12" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1353,12 +1343,14 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:22" s="13" customFormat="1" ht="40.9" customHeight="1">
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:24" s="13" customFormat="1" ht="40.9" customHeight="1">
       <c r="A10" s="63" t="s">
         <v>3</v>
       </c>
@@ -1384,9 +1376,11 @@
       <c r="S10" s="59"/>
       <c r="T10" s="59"/>
       <c r="U10" s="59"/>
-      <c r="V10" s="60"/>
-    </row>
-    <row r="11" spans="1:22" s="13" customFormat="1" ht="94.9" customHeight="1">
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
+    </row>
+    <row r="11" spans="1:24" s="13" customFormat="1" ht="94.9" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="63" t="s">
         <v>5</v>
@@ -1395,124 +1389,130 @@
         <v>6</v>
       </c>
       <c r="D11" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="G11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="17" t="s">
+      <c r="L11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="N11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="O11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="P11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="Q11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="R11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="S11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="T11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="U11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="V11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="13" customFormat="1" ht="71.45" customHeight="1">
+      <c r="W11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="13" customFormat="1" ht="71.45" customHeight="1">
       <c r="A12" s="63"/>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
       <c r="D12" s="63"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="I12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="J12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="O12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="P12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="Q12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="R12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="S12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="T12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="U12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="V12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U12" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="V12" s="56"/>
-    </row>
-    <row r="13" spans="1:22" s="30" customFormat="1" ht="112.5" customHeight="1">
+      <c r="W12" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" s="56"/>
+    </row>
+    <row r="13" spans="1:24" s="30" customFormat="1" ht="112.5" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
@@ -1526,17 +1526,19 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="26"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="57"/>
-    </row>
-    <row r="14" spans="1:22" s="29" customFormat="1" ht="30.75">
+      <c r="S13" s="25"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="57"/>
+    </row>
+    <row r="14" spans="1:24" s="29" customFormat="1" ht="30.75">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -1557,8 +1559,10 @@
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
-    </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="31.5">
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+    </row>
+    <row r="15" spans="1:24" s="31" customFormat="1" ht="31.5">
       <c r="A15" s="49"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1579,8 +1583,10 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="7.5" customHeight="1">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" s="31" customFormat="1" ht="7.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1601,8 +1607,10 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -1623,8 +1631,10 @@
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
       <c r="T51" s="31"/>
-    </row>
-    <row r="52" spans="1:21" ht="30.75">
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+    </row>
+    <row r="52" spans="1:23" ht="30.75">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -1639,14 +1649,16 @@
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
       <c r="Q52" s="32"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="35"/>
-    </row>
-    <row r="53" spans="1:21" s="31" customFormat="1" ht="6.75" customHeight="1">
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="35"/>
+    </row>
+    <row r="53" spans="1:23" s="31" customFormat="1" ht="6.75" customHeight="1">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -1661,15 +1673,17 @@
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
       <c r="N53" s="29"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
       <c r="Q53" s="36"/>
       <c r="R53" s="36"/>
       <c r="S53" s="36"/>
       <c r="T53" s="36"/>
-    </row>
-    <row r="54" spans="1:21" s="29" customFormat="1" ht="37.5" customHeight="1"/>
-    <row r="55" spans="1:21" s="29" customFormat="1" ht="30.75">
+      <c r="U53" s="36"/>
+      <c r="V53" s="36"/>
+    </row>
+    <row r="54" spans="1:23" s="29" customFormat="1" ht="37.5" customHeight="1"/>
+    <row r="55" spans="1:23" s="29" customFormat="1" ht="30.75">
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
@@ -1687,8 +1701,10 @@
       <c r="R55" s="30"/>
       <c r="S55" s="30"/>
       <c r="T55" s="30"/>
-    </row>
-    <row r="56" spans="1:21" s="29" customFormat="1" ht="30.75">
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+    </row>
+    <row r="56" spans="1:23" s="29" customFormat="1" ht="30.75">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1709,8 +1725,10 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
-    </row>
-    <row r="57" spans="1:21" s="30" customFormat="1" ht="30.75">
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+    </row>
+    <row r="57" spans="1:23" s="30" customFormat="1" ht="30.75">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1731,9 +1749,11 @@
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
-      <c r="U57" s="29"/>
-    </row>
-    <row r="58" spans="1:21" s="6" customFormat="1" ht="26.25">
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="29"/>
+    </row>
+    <row r="58" spans="1:23" s="6" customFormat="1" ht="26.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1754,9 +1774,11 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="5"/>
-    </row>
-    <row r="59" spans="1:21" s="6" customFormat="1" ht="26.25">
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="5"/>
+    </row>
+    <row r="59" spans="1:23" s="6" customFormat="1" ht="26.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1777,14 +1799,16 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="U59" s="5"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B10:V10"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="B10:X10"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="A4:V4"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
@@ -1826,7 +1850,7 @@
   <sheetData>
     <row r="1" spans="2:18">
       <c r="B1" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G1" s="40"/>
     </row>

--- a/WISOL.UI/Worksheet_PR.xlsx
+++ b/WISOL.UI/Worksheet_PR.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Char!$A$1:$S$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Order!$A$1:$X$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Order!$A$1:$Y$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Order!$10:$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>QUẢN LÝ ĐỀ NGHỊ MUA HÀNG</t>
   </si>
@@ -257,9 +257,6 @@
     <t>4.구매 요청(PR.NO):</t>
   </si>
   <si>
-    <t>1. 구입 목적 (Mục đích mua) : ….년 ... 월 생산계획에 따른 Consumable part 구입 품의 (Đề nghị mua vật tư tiêu hao dựa trên kế hoạch sản xuất tháng …. năm ….)</t>
-  </si>
-  <si>
     <t>Lead Time (Week)</t>
   </si>
   <si>
@@ -300,6 +297,12 @@
     <t xml:space="preserve">
 Tên tiếng anh/ tiếng hàn
 (한글 혹은 영문명 기입)</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>1. 구입 목적 (Mục đích mua) : ....년  월 Spare Part  구매 품의/Đề nghị mua Spare Part</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -657,6 +660,32 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -681,7 +710,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -838,6 +867,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -854,6 +886,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1199,141 +1237,147 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:X59"/>
+  <dimension ref="A2:Y59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" zoomScalePageLayoutView="69" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="23.5703125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="64.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="2" customWidth="1"/>
-    <col min="8" max="15" width="19.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="28.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="26" style="2" customWidth="1"/>
-    <col min="19" max="20" width="28.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="30.42578125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="37.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="4" width="23.5703125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="64.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16" width="19.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26" style="2" customWidth="1"/>
+    <col min="20" max="21" width="28.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="30.42578125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="37.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="43.9" customHeight="1">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="43.9" customHeight="1">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="43.9" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="43.9" customHeight="1">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-    </row>
-    <row r="4" spans="1:24" ht="28.9" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+    </row>
+    <row r="4" spans="1:25" ht="28.9" customHeight="1">
+      <c r="A4" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-    </row>
-    <row r="5" spans="1:24" ht="42" customHeight="1"/>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="42" customHeight="1">
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+    </row>
+    <row r="5" spans="1:25" ht="42" customHeight="1"/>
+    <row r="6" spans="1:25" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="42" customHeight="1">
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="1:25" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="42" customHeight="1">
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" spans="1:25" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:24" s="12" customFormat="1" ht="32.450000000000003" customHeight="1">
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:25" s="12" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1345,182 +1389,188 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="11"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="8"/>
+      <c r="U9" s="11"/>
       <c r="V9" s="8"/>
-    </row>
-    <row r="10" spans="1:24" s="13" customFormat="1" ht="40.9" customHeight="1">
-      <c r="A10" s="63" t="s">
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" s="13" customFormat="1" ht="40.9" customHeight="1">
+      <c r="A10" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
       <c r="X10" s="60"/>
-    </row>
-    <row r="11" spans="1:24" s="13" customFormat="1" ht="94.9" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63" t="s">
+      <c r="Y10" s="61"/>
+    </row>
+    <row r="11" spans="1:25" s="13" customFormat="1" ht="94.9" customHeight="1">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="J11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="K11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="M11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="15" t="s">
+      <c r="N11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="O11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="P11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="Q11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="R11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="S11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="T11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="U11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U11" s="14" t="s">
+      <c r="V11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="W11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="51" t="s">
+      <c r="X11" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="X11" s="56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="13" customFormat="1" ht="71.45" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="Y11" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="13" customFormat="1" ht="71.45" customHeight="1">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="I12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="J12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="K12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="17"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="17"/>
+      <c r="N12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="O12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="P12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="Q12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="R12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="S12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="T12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="U12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="14" t="s">
+      <c r="V12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="W12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="W12" s="51" t="s">
+      <c r="X12" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="X12" s="56"/>
-    </row>
-    <row r="13" spans="1:24" s="30" customFormat="1" ht="112.5" customHeight="1">
+      <c r="Y12" s="56"/>
+    </row>
+    <row r="13" spans="1:25" s="30" customFormat="1" ht="112.5" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="50"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="50"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
@@ -1528,17 +1578,18 @@
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="28"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="27"/>
       <c r="W13" s="28"/>
-      <c r="X13" s="57"/>
-    </row>
-    <row r="14" spans="1:24" s="29" customFormat="1" ht="30.75">
+      <c r="X13" s="28"/>
+      <c r="Y13" s="57"/>
+    </row>
+    <row r="14" spans="1:25" s="29" customFormat="1" ht="30.75">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -1561,12 +1612,13 @@
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
       <c r="V14" s="31"/>
-    </row>
-    <row r="15" spans="1:24" s="31" customFormat="1" ht="31.5">
+      <c r="W14" s="31"/>
+    </row>
+    <row r="15" spans="1:25" s="31" customFormat="1" ht="31.5">
       <c r="A15" s="49"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1585,12 +1637,13 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" s="31" customFormat="1" ht="7.5" customHeight="1">
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" s="31" customFormat="1" ht="7.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1609,8 +1662,9 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="W16" s="2"/>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -1633,8 +1687,9 @@
       <c r="T51" s="31"/>
       <c r="U51" s="31"/>
       <c r="V51" s="31"/>
-    </row>
-    <row r="52" spans="1:23" ht="30.75">
+      <c r="W51" s="31"/>
+    </row>
+    <row r="52" spans="1:24" ht="30.75">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -1651,14 +1706,15 @@
       <c r="N52" s="29"/>
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
-      <c r="Q52" s="32"/>
+      <c r="Q52" s="29"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="35"/>
-    </row>
-    <row r="53" spans="1:23" s="31" customFormat="1" ht="6.75" customHeight="1">
+      <c r="T52" s="32"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="35"/>
+    </row>
+    <row r="53" spans="1:24" s="31" customFormat="1" ht="6.75" customHeight="1">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -1675,16 +1731,16 @@
       <c r="N53" s="29"/>
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
-      <c r="Q53" s="36"/>
+      <c r="Q53" s="29"/>
       <c r="R53" s="36"/>
       <c r="S53" s="36"/>
       <c r="T53" s="36"/>
       <c r="U53" s="36"/>
       <c r="V53" s="36"/>
-    </row>
-    <row r="54" spans="1:23" s="29" customFormat="1" ht="37.5" customHeight="1"/>
-    <row r="55" spans="1:23" s="29" customFormat="1" ht="30.75">
-      <c r="D55" s="30"/>
+      <c r="W53" s="36"/>
+    </row>
+    <row r="54" spans="1:24" s="29" customFormat="1" ht="37.5" customHeight="1"/>
+    <row r="55" spans="1:24" s="29" customFormat="1" ht="30.75">
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
@@ -1703,12 +1759,13 @@
       <c r="T55" s="30"/>
       <c r="U55" s="30"/>
       <c r="V55" s="30"/>
-    </row>
-    <row r="56" spans="1:23" s="29" customFormat="1" ht="30.75">
+      <c r="W55" s="30"/>
+    </row>
+    <row r="56" spans="1:24" s="29" customFormat="1" ht="30.75">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="58"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -1727,12 +1784,13 @@
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
-    </row>
-    <row r="57" spans="1:23" s="30" customFormat="1" ht="30.75">
+      <c r="W56" s="6"/>
+    </row>
+    <row r="57" spans="1:24" s="30" customFormat="1" ht="30.75">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="58"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -1751,13 +1809,14 @@
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
-      <c r="W57" s="29"/>
-    </row>
-    <row r="58" spans="1:23" s="6" customFormat="1" ht="26.25">
+      <c r="W57" s="6"/>
+      <c r="X57" s="29"/>
+    </row>
+    <row r="58" spans="1:24" s="6" customFormat="1" ht="26.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -1776,13 +1835,14 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="5"/>
-    </row>
-    <row r="59" spans="1:23" s="6" customFormat="1" ht="26.25">
+      <c r="W58" s="2"/>
+      <c r="X58" s="5"/>
+    </row>
+    <row r="59" spans="1:24" s="6" customFormat="1" ht="26.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -1801,17 +1861,19 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="5"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B10:X10"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="A4:V4"/>
+  <mergeCells count="9">
+    <mergeCell ref="B10:Y10"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="D11:D12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
